--- a/test-main/src/main/resources/rule5/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule5/发送到流立方的数据.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -52,18 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>successed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>successed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-03-09 08:15:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,13 +110,25 @@
   <si>
     <t>dataDisposeSehedule</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.TX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +197,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,7 +520,7 @@
     <col min="8" max="8" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,13 +540,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -545,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>16</v>
@@ -557,10 +569,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -568,22 +583,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,22 +609,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -614,22 +635,25 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -637,22 +661,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -660,22 +687,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -683,19 +713,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule5/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule5/发送到流立方的数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -56,72 +56,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2016-03-12 09:16:03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-16 09:16:04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDisposeSehedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.TX</t>
+  </si>
+  <si>
     <t>588888888888A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>588888888888B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888888888C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888888888D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888888888E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888888888F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888888888G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-03-12 09:16:03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WITHDRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-03-16 09:16:04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-05-03 09:16:05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-05-12 09:16:06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2016-05-16 09:16:07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataDisposeSehedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCCESSED</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>bizCode</t>
-  </si>
-  <si>
-    <t>PAY.TX</t>
+    <t>2016-05-11 09:16:05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-13 09:16:07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -506,7 +482,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -557,10 +533,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>16</v>
@@ -569,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -583,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>16</v>
@@ -595,10 +571,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -609,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -635,22 +611,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -661,10 +637,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>98</v>
@@ -673,10 +649,10 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -687,22 +663,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -713,22 +689,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
